--- a/data/tables/paradigms_adjectives.xlsx
+++ b/data/tables/paradigms_adjectives.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\tsakonian_dictionary_app\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CD25F5-B713-49C5-B10A-F824129DA1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A262EA-0888-4492-89F0-1D95ECC6E4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
